--- a/Factors Original Papers.xlsx
+++ b/Factors Original Papers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4df0159ab0033da3/Desktop/Summer 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C643CF0A-7CE5-44C7-8A85-2AE2E49C232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{C643CF0A-7CE5-44C7-8A85-2AE2E49C232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E3E7BA4-5B0F-43AC-8D8A-30E6D78DE0E2}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{7B0A9E23-4401-4AC2-AA40-82DF17DD9F1E}"/>
+    <workbookView xWindow="7890" yWindow="3255" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{7B0A9E23-4401-4AC2-AA40-82DF17DD9F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="340">
   <si>
     <t>Factors (Strategies)</t>
   </si>
@@ -157,9 +158,6 @@
   </si>
   <si>
     <t>AgeIPO</t>
-  </si>
-  <si>
-    <t>JOF_1991</t>
   </si>
   <si>
     <t>Maxing out: Stocks as lotteries and the cross-section of expected returns</t>
@@ -1040,13 +1038,31 @@
   </si>
   <si>
     <t>Differential information and the small firm effect</t>
+  </si>
+  <si>
+    <t>Trading activity and expected stock returns</t>
+  </si>
+  <si>
+    <t>Illiquidity and stock returns: cross-section and time-series effects</t>
+  </si>
+  <si>
+    <t>Arbitrage risk and the book-to-market anomaly</t>
+  </si>
+  <si>
+    <t>An examination of long-term abnormal stock returns and operating performance following R&amp;D increases</t>
+  </si>
+  <si>
+    <t>On the importance of measuring payout yield: Implications for empirical asset pricing</t>
+  </si>
+  <si>
+    <t>Complicated firms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1072,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1081,11 +1104,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65932E99-BA0F-4F54-BD34-D17779487169}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,10 +1641,10 @@
         <v>1991</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1619,19 +1652,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C11">
         <v>1992</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1639,19 +1672,19 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C12">
         <v>1992</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1659,19 +1692,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C13">
         <v>1993</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
@@ -1679,19 +1712,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C14">
         <v>1993</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1699,19 +1732,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C15">
         <v>1993</v>
       </c>
       <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1719,19 +1752,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C16">
         <v>1993</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1739,19 +1772,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C17">
         <v>1993</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1759,19 +1792,19 @@
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C18">
         <v>1994</v>
       </c>
       <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1779,59 +1812,59 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C19">
         <v>1994</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C20">
-        <v>1995</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C21">
         <v>1995</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1839,19 +1872,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C22">
         <v>1995</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1859,19 +1892,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C23">
         <v>1996</v>
       </c>
       <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
@@ -1879,19 +1912,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C24">
         <v>1996</v>
       </c>
       <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
       </c>
       <c r="F24" t="s">
         <v>35</v>
@@ -1899,19 +1932,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C25">
         <v>1996</v>
       </c>
       <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1919,19 +1952,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C26">
         <v>1996</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
         <v>35</v>
@@ -1939,19 +1972,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C27">
         <v>1996</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1959,20 +1992,20 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C28">
         <f>1996</f>
         <v>1996</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1980,19 +2013,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C29">
         <v>1996</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2000,19 +2033,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C30">
         <v>1998</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2020,19 +2053,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C31">
         <v>1998</v>
       </c>
       <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -2040,20 +2073,20 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C32">
         <f>1999</f>
         <v>1999</v>
       </c>
       <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -2061,19 +2094,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C33">
         <v>2000</v>
       </c>
       <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
         <v>119</v>
-      </c>
-      <c r="E33" t="s">
-        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2081,19 +2114,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C34">
         <v>2001</v>
       </c>
       <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -2101,19 +2134,19 @@
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C35">
         <v>2001</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -2121,19 +2154,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C36">
         <v>2001</v>
       </c>
       <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2141,19 +2174,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C37">
         <v>2001</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -2161,19 +2194,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C38">
         <v>2002</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -2181,19 +2214,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C39">
         <v>2002</v>
       </c>
       <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -2201,19 +2234,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C40">
         <v>2002</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -2221,19 +2254,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C41">
         <v>2003</v>
       </c>
       <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2241,19 +2274,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C42">
         <v>2004</v>
       </c>
       <c r="D42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2261,19 +2294,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C43">
         <v>2004</v>
       </c>
       <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
         <v>155</v>
-      </c>
-      <c r="E43" t="s">
-        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -2281,19 +2314,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C44">
         <v>2004</v>
       </c>
       <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
         <v>159</v>
-      </c>
-      <c r="E44" t="s">
-        <v>160</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -2301,19 +2334,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C45">
         <v>2004</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2321,19 +2354,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C46">
         <v>2005</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2341,19 +2374,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C47">
         <v>2005</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2361,19 +2394,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C48">
         <v>2005</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2381,19 +2414,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C49">
         <v>2005</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -2401,19 +2434,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C50">
         <v>2005</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
         <v>35</v>
@@ -2421,19 +2454,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C51">
         <v>2005</v>
       </c>
       <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2441,19 +2474,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C52">
         <v>2005</v>
       </c>
       <c r="D52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2461,19 +2494,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C53">
         <v>2006</v>
       </c>
       <c r="D53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2481,19 +2514,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C54">
         <v>2006</v>
       </c>
       <c r="D54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2501,19 +2534,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C55">
         <v>2006</v>
       </c>
       <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2521,19 +2554,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C56">
         <v>2006</v>
       </c>
       <c r="D56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2541,19 +2574,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C57">
         <v>2006</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
@@ -2561,19 +2594,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C58">
         <v>2006</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2581,19 +2614,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C59">
         <v>2006</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2601,19 +2634,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C60">
         <v>2006</v>
       </c>
       <c r="D60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2621,19 +2654,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C61">
         <v>2006</v>
       </c>
       <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F61" t="s">
         <v>35</v>
@@ -2641,19 +2674,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C62">
         <v>2006</v>
       </c>
       <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F62" t="s">
         <v>35</v>
@@ -2661,19 +2694,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C63">
         <v>2007</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
@@ -2681,19 +2714,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C64">
         <v>2007</v>
       </c>
       <c r="D64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2701,19 +2734,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C65">
         <v>2007</v>
       </c>
       <c r="D65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2721,19 +2754,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C66">
         <v>2007</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2741,19 +2774,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C67">
         <v>2008</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2761,19 +2794,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C68">
         <v>2008</v>
       </c>
       <c r="D68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2781,19 +2814,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C69">
         <v>2008</v>
       </c>
       <c r="D69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2801,19 +2834,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C70">
         <v>2008</v>
       </c>
       <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2821,19 +2854,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C71">
         <v>2008</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2841,19 +2874,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C72">
         <v>2008</v>
       </c>
       <c r="D72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" t="s">
         <v>255</v>
-      </c>
-      <c r="E72" t="s">
-        <v>256</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2861,19 +2894,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C73">
         <v>2009</v>
       </c>
       <c r="D73" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" t="s">
         <v>259</v>
-      </c>
-      <c r="E73" t="s">
-        <v>260</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2881,19 +2914,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C74">
         <v>2009</v>
       </c>
       <c r="D74" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2901,19 +2934,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C75">
         <v>2010</v>
       </c>
       <c r="D75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" t="s">
         <v>267</v>
-      </c>
-      <c r="E75" t="s">
-        <v>268</v>
       </c>
       <c r="F75" t="s">
         <v>35</v>
@@ -2921,19 +2954,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C76">
         <v>2010</v>
       </c>
       <c r="D76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2941,19 +2974,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C77">
         <v>2010</v>
       </c>
       <c r="D77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" t="s">
         <v>274</v>
-      </c>
-      <c r="E77" t="s">
-        <v>275</v>
       </c>
       <c r="F77" t="s">
         <v>35</v>
@@ -2961,19 +2994,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C78">
         <v>2010</v>
       </c>
       <c r="D78" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2981,19 +3014,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C79">
         <v>2011</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
         <v>35</v>
@@ -3001,19 +3034,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C80">
         <v>2011</v>
       </c>
       <c r="D80" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" t="s">
         <v>285</v>
-      </c>
-      <c r="E80" t="s">
-        <v>286</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -3021,19 +3054,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C81">
         <v>2011</v>
       </c>
       <c r="D81" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" t="s">
         <v>289</v>
-      </c>
-      <c r="E81" t="s">
-        <v>290</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
@@ -3041,19 +3074,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C82">
         <v>2012</v>
       </c>
       <c r="D82" t="s">
+        <v>292</v>
+      </c>
+      <c r="E82" t="s">
         <v>293</v>
-      </c>
-      <c r="E82" t="s">
-        <v>294</v>
       </c>
       <c r="F82" t="s">
         <v>35</v>
@@ -3061,19 +3094,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C83">
         <v>2012</v>
       </c>
       <c r="D83" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -3081,19 +3114,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C84">
         <v>2012</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -3101,19 +3134,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C85">
         <v>2012</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -3121,19 +3154,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C86">
         <v>2013</v>
       </c>
       <c r="D86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -3141,19 +3174,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C87">
         <v>2013</v>
       </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -3161,19 +3194,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C88">
         <v>2013</v>
       </c>
       <c r="D88" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -3181,19 +3214,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C89">
         <v>2013</v>
       </c>
       <c r="D89" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -3201,19 +3234,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C90">
         <v>2014</v>
       </c>
       <c r="D90" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -3221,19 +3254,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C91">
         <v>2014</v>
       </c>
       <c r="D91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -3241,19 +3274,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C92">
         <v>2014</v>
       </c>
       <c r="D92" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -3261,22 +3294,1321 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C93">
         <v>2016</v>
       </c>
       <c r="D93" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C480EB5F-1391-44E0-8C01-6ADCA6644C11}">
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:E75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1995</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1995</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1995</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1996</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1996</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1996</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1996</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1996</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6">
+        <f>1996</f>
+        <v>1996</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1996</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1998</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1998</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="6">
+        <f>1999</f>
+        <v>1999</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
